--- a/35stockscomparable.xlsx
+++ b/35stockscomparable.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="375">
   <si>
     <t xml:space="preserve">ABBV</t>
   </si>
@@ -58,6 +58,9 @@
     <t xml:space="preserve">BHP</t>
   </si>
   <si>
+    <t xml:space="preserve">BLK</t>
+  </si>
+  <si>
     <t xml:space="preserve">BSX</t>
   </si>
   <si>
@@ -142,7 +145,7 @@
     <t xml:space="preserve">'Agnico Eagle Mines Ltd': 'AEM'</t>
   </si>
   <si>
-    <t xml:space="preserve">'Alibaba Group Holding Ltd': 'BABA'</t>
+    <t xml:space="preserve">Amazon.com, Inc.': 'AMZN</t>
   </si>
   <si>
     <t xml:space="preserve">'Microsoft Corporation': 'MSFT'</t>
@@ -172,6 +175,9 @@
     <t xml:space="preserve">'Rio Tinto Group': 'RIO'</t>
   </si>
   <si>
+    <t xml:space="preserve">    'The Vanguard Group': 'Private'</t>
+  </si>
+  <si>
     <t xml:space="preserve">'Medtronic plc': 'MDT'</t>
   </si>
   <si>
@@ -271,6 +277,9 @@
     <t xml:space="preserve">'Vale S.A.': 'VALE'</t>
   </si>
   <si>
+    <t xml:space="preserve">    'State Street Corporation': 'STT'</t>
+  </si>
+  <si>
     <t xml:space="preserve">'Abbott Laboratories': 'ABT'</t>
   </si>
   <si>
@@ -376,6 +385,9 @@
     <t xml:space="preserve">'Anglo American plc': 'NGLOY'</t>
   </si>
   <si>
+    <t xml:space="preserve">    'Fidelity Investments': 'Private'</t>
+  </si>
+  <si>
     <t xml:space="preserve">'Innergex Renewable Energy Inc.': 'INGXF'</t>
   </si>
   <si>
@@ -472,6 +484,9 @@
     <t xml:space="preserve">'Glencore plc': 'GLNCY'</t>
   </si>
   <si>
+    <t xml:space="preserve">    'Charles Schwab Corporation': 'SCHW'</t>
+  </si>
+  <si>
     <t xml:space="preserve">'Stryker Corporation': 'SYK'</t>
   </si>
   <si>
@@ -574,6 +589,9 @@
     <t xml:space="preserve">'Freeport-McMoRan Inc.': 'FCX'</t>
   </si>
   <si>
+    <t xml:space="preserve">    'T. Rowe Price Group, Inc.': 'TROW'</t>
+  </si>
+  <si>
     <t xml:space="preserve">'Becton, Dickinson and Company': 'BDX'</t>
   </si>
   <si>
@@ -670,6 +688,9 @@
     <t xml:space="preserve">'Barrick Gold Corporation': 'GOLD'</t>
   </si>
   <si>
+    <t xml:space="preserve">    'Northern Trust Corporation': 'NTRS'</t>
+  </si>
+  <si>
     <t xml:space="preserve">'Atlantica Sustainable Infrastructure plc': 'AY'</t>
   </si>
   <si>
@@ -766,6 +787,9 @@
     <t xml:space="preserve">'Tesla, Inc.': 'TSLA'</t>
   </si>
   <si>
+    <t xml:space="preserve">    'Invesco Ltd.': 'IVZ'</t>
+  </si>
+  <si>
     <t xml:space="preserve">'Hannon Armstrong Sustainable Infrastructure Capital, Inc.': 'HASI'</t>
   </si>
   <si>
@@ -859,6 +883,9 @@
     <t xml:space="preserve">'Southern Copper Corporation': 'SCCO'</t>
   </si>
   <si>
+    <t xml:space="preserve">    'Franklin Resources, Inc.': 'BEN'</t>
+  </si>
+  <si>
     <t xml:space="preserve">'Smith &amp; Nephew plc': 'SNN'</t>
   </si>
   <si>
@@ -949,6 +976,9 @@
     <t xml:space="preserve">'Telefónica S.A.': 'TEF'</t>
   </si>
   <si>
+    <t xml:space="preserve">    'UBS Group AG': 'UBS'</t>
+  </si>
+  <si>
     <t xml:space="preserve">'Terumo Corporation': 'TRUMY'</t>
   </si>
   <si>
@@ -1046,6 +1076,9 @@
   </si>
   <si>
     <t xml:space="preserve">'Antofagasta plc': 'ANFGY'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'Amundi': 'AMUN'</t>
   </si>
   <si>
     <t xml:space="preserve">'Baxter International Inc.': 'BAX'</t>
@@ -1161,7 +1194,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1171,7 +1204,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF6C6AD"/>
-        <bgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FFFBE3D6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBE3D6"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -1209,7 +1248,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1226,7 +1265,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1242,7 +1281,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1275,7 +1322,7 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFFBE3D6"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -1323,10 +1370,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AN1048576"/>
+  <dimension ref="A1:AN17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L5" activeCellId="0" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.3984375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1371,1267 +1418,1289 @@
       <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4"/>
+      <c r="M1" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="N1" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z1" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE1" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AH1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="AI1" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AJ1" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AK1" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AL1" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AM1" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AN1" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="73.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="84.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="8" t="s">
         <v>40</v>
       </c>
+      <c r="C2" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="D2" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE2" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG2" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL2" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM2" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN2" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="102" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="X2" s="7" t="s">
+      <c r="H3" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB3" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC3" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD3" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE3" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG3" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH3" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI3" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ3" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AK3" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL3" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="AM3" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN3" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="84.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="W4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="X4" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB4" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC4" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE4" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF4" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="AG4" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH4" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI4" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="AJ4" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK4" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL4" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="AM4" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AN4" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="84.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="Y2" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB2" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC2" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD2" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE2" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF2" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG2" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI2" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ2" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK2" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="AL2" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="AM2" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN2" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="73.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="M3" s="4"/>
-      <c r="N3" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="V3" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="W3" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="X3" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y3" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB3" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC3" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD3" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE3" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF3" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG3" s="7" t="s">
+      <c r="E5" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="W5" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="AH3" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="AI3" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="AJ3" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="AK3" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="AL3" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="AM3" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN3" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="59" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="S4" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="T4" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="U4" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="V4" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="W4" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="X4" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Y4" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB4" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="AC4" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="AD4" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="AE4" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF4" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="AG4" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="AH4" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="AI4" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="AJ4" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="AK4" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="AL4" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="AM4" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="AN4" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="73.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="X5" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y5" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB5" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AC5" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="AD5" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="AE5" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="AF5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="AG5" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH5" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="R5" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="S5" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="T5" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="U5" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="V5" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="W5" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="X5" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Y5" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="AB5" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="AC5" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="AD5" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="AE5" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="AF5" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="AG5" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="AH5" s="7" t="s">
-        <v>147</v>
-      </c>
       <c r="AI5" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="AJ5" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="AK5" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="AL5" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="AM5" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="AN5" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="135.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="M6" s="4"/>
+        <v>188</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>189</v>
+      </c>
       <c r="N6" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="R6" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="U6" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="V6" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="W6" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="X6" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y6" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="S6" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="T6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="U6" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="V6" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="W6" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="X6" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Y6" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="7" t="s">
-        <v>183</v>
-      </c>
       <c r="AB6" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="AC6" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="AD6" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="AE6" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AF6" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="AG6" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="AH6" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AI6" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="AJ6" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="AK6" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="AL6" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="AM6" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="AN6" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="84.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="M7" s="4"/>
+        <v>221</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>222</v>
+      </c>
       <c r="N7" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="S7" s="7" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="T7" s="7" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="U7" s="7" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="V7" s="7" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="W7" s="7" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="X7" s="7" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="Y7" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Z7" s="4"/>
+        <v>233</v>
+      </c>
+      <c r="Z7" s="9"/>
       <c r="AA7" s="7" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="AB7" s="7" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="AC7" s="7" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="AD7" s="7" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="AE7" s="7" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="AF7" s="7" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="AG7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AH7" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AI7" s="7" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="AJ7" s="7" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AK7" s="7" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="AL7" s="7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="AM7" s="7" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="AN7" s="7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="102" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="M8" s="4"/>
+        <v>234</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>255</v>
+      </c>
       <c r="N8" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="S8" s="7" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="T8" s="7" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="U8" s="7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="V8" s="7" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="W8" s="7" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="X8" s="7" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="Y8" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="Z8" s="4"/>
+        <v>266</v>
+      </c>
+      <c r="Z8" s="9"/>
       <c r="AA8" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="AB8" s="7" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AC8" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AD8" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="AE8" s="7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="AF8" s="7" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="AG8" s="7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="AH8" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AI8" s="7" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="AJ8" s="7" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="AK8" s="7" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="AL8" s="7" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="AM8" s="7" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="AN8" s="7" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="84.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="M9" s="4"/>
+        <v>286</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>287</v>
+      </c>
       <c r="N9" s="7" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="S9" s="7" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="W9" s="7" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="X9" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="Y9" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="Z9" s="4"/>
+        <v>297</v>
+      </c>
+      <c r="Z9" s="9"/>
       <c r="AA9" s="7" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="AB9" s="7" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="AC9" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="AD9" s="7" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="AE9" s="7" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="AF9" s="7" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="AG9" s="7" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="AH9" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="AI9" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AJ9" s="7" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="AK9" s="7" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="AL9" s="7" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="AM9" s="7" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="AN9" s="7" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="84.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="R10" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="S10" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="T10" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="U10" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="V10" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="W10" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="X10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y10" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="AB10" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="AC10" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="AD10" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="AE10" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="AF10" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="AG10" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="AH10" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="M10" s="4"/>
-      <c r="N10" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="R10" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="S10" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="T10" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="U10" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="V10" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="W10" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="X10" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Y10" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="AB10" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="AC10" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="AD10" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="AE10" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="AF10" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="AG10" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="AH10" s="7" t="s">
-        <v>294</v>
-      </c>
       <c r="AI10" s="7" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="AJ10" s="7" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="AK10" s="7" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="AL10" s="7" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="AM10" s="7" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="AN10" s="7" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="84.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="D11" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="T11" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="U11" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="V11" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="W11" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="X11" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="Y11" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="AB11" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="AC11" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="AD11" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="AE11" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="AF11" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="AG11" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="AH11" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="M11" s="4"/>
-      <c r="N11" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="R11" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="S11" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="T11" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="U11" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="V11" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="W11" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="X11" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="Y11" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="Z11" s="4"/>
-      <c r="AA11" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="AB11" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="AC11" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="AD11" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE11" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="AF11" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="AG11" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="AH11" s="7" t="s">
-        <v>324</v>
-      </c>
       <c r="AI11" s="7" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="AJ11" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AK11" s="7" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="AL11" s="7" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="AM11" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AN11" s="7" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2647,6 +2716,7 @@
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
+      <c r="M12" s="10"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
@@ -2737,8 +2807,6 @@
       <c r="L17" s="7"/>
       <c r="N17" s="7"/>
     </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
